--- a/tests/חלוקת עבודה ב Ttest.xlsx
+++ b/tests/חלוקת עבודה ב Ttest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>clinic secretary</t>
   </si>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -770,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
@@ -781,7 +781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -792,7 +792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -803,7 +803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
@@ -814,7 +814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -825,7 +825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
@@ -836,7 +836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -847,7 +847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>3</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
@@ -879,8 +879,11 @@
       <c r="C26" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>6</v>
       </c>
@@ -890,8 +893,11 @@
       <c r="C27" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>7</v>
       </c>
@@ -901,8 +907,11 @@
       <c r="C28" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>8</v>
       </c>
@@ -912,8 +921,11 @@
       <c r="C29" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>9</v>
       </c>
@@ -923,8 +935,11 @@
       <c r="C30" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>10</v>
       </c>
@@ -933,6 +948,9 @@
       </c>
       <c r="C31" s="10" t="s">
         <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
